--- a/data_quarter/zb/人民生活/全国居民人均收入情况.xlsx
+++ b/data_quarter/zb/人民生活/全国居民人均收入情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,41 @@
           <t>居民人均可支配转移净收入_累计增长</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均可支配工资性收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均可支配收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均可支配收入中位数</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均可支配经营净收入</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均可支配财产净收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均可支配转移净收入</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -525,73 +555,127 @@
         <v>798.4</v>
       </c>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>2849.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5006.09</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4117.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>968.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>390</v>
+      </c>
+      <c r="S2" t="n">
+        <v>798.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7834.4</v>
+        <v>5224.7</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>13556.5</v>
+        <v>9049.07</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>11700.2</v>
+        <v>7723.4</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>2382.9</v>
+        <v>1599.7</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1043.8</v>
+        <v>704.1</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2295.4</v>
+        <v>1520.6</v>
       </c>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>2375.3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4042.98</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3606.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>631.4000000000001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>722.1999999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5224.7</v>
+        <v>7834.4</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>9049.07</v>
+        <v>13556.5</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>7723.4</v>
+        <v>11700.2</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1599.7</v>
+        <v>2382.9</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>704.1</v>
+        <v>1043.8</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1520.6</v>
+        <v>2295.4</v>
       </c>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>2609.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4507.43</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3976.800000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>783.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>339.6999999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>774.8000000000002</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -620,11 +704,29 @@
         <v>3042.05</v>
       </c>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>2576.360000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4754.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3931.9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1051.77</v>
+      </c>
+      <c r="R5" t="n">
+        <v>379.46</v>
+      </c>
+      <c r="S5" t="n">
+        <v>746.6500000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -663,97 +765,151 @@
       <c r="M6" t="n">
         <v>10.9</v>
       </c>
+      <c r="N6" t="n">
+        <v>3187.28</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5562.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4693.595</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1046.83</v>
+      </c>
+      <c r="R6" t="n">
+        <v>442.96</v>
+      </c>
+      <c r="S6" t="n">
+        <v>885.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8605.59</v>
+        <v>5784.94</v>
       </c>
       <c r="C7" t="n">
-        <v>9.800000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="D7" t="n">
-        <v>14985.63</v>
+        <v>10024.97</v>
       </c>
       <c r="E7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>13120.125</v>
+        <v>8779.91333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>12.1356640577425</v>
+        <v>13.678939711156</v>
       </c>
       <c r="H7" t="n">
-        <v>2628.13</v>
+        <v>1737.41</v>
       </c>
       <c r="I7" t="n">
-        <v>10.3</v>
+        <v>8.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1192.08</v>
+        <v>804.14</v>
       </c>
       <c r="K7" t="n">
         <v>14.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2559.83</v>
+        <v>1698.48</v>
       </c>
       <c r="M7" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2597.659999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4462.789999999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4086.31833333333</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>690.5800000000002</v>
+      </c>
+      <c r="R7" t="n">
+        <v>361.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>813.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5784.94</v>
+        <v>8605.59</v>
       </c>
       <c r="C8" t="n">
-        <v>10.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>10024.97</v>
+        <v>14985.63</v>
       </c>
       <c r="E8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8779.91333333333</v>
+        <v>13120.125</v>
       </c>
       <c r="G8" t="n">
-        <v>13.678939711156</v>
+        <v>12.1356640577425</v>
       </c>
       <c r="H8" t="n">
-        <v>1737.41</v>
+        <v>2628.13</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="J8" t="n">
-        <v>804.14</v>
+        <v>1192.08</v>
       </c>
       <c r="K8" t="n">
         <v>14.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1698.48</v>
+        <v>2559.83</v>
       </c>
       <c r="M8" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2820.650000000001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4960.66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4340.21166666667</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>890.72</v>
+      </c>
+      <c r="R8" t="n">
+        <v>387.9399999999999</v>
+      </c>
+      <c r="S8" t="n">
+        <v>861.3499999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -792,11 +948,29 @@
       <c r="M9" t="n">
         <v>12.6</v>
       </c>
+      <c r="N9" t="n">
+        <v>2814.99</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5181.49</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4449.669999999998</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1103.89</v>
+      </c>
+      <c r="R9" t="n">
+        <v>395.6800000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>866.9300000000003</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -835,97 +1009,151 @@
       <c r="M10" t="n">
         <v>12.8</v>
       </c>
+      <c r="N10" t="n">
+        <v>3486.83</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6086.93</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5216.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1122.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>479.64</v>
+      </c>
+      <c r="S10" t="n">
+        <v>998.42</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9385.16035273496</v>
+        <v>6308.06</v>
       </c>
       <c r="C11" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>16367.0952543357</v>
+        <v>10930.68</v>
       </c>
       <c r="E11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="F11" t="n">
-        <v>14460</v>
+        <v>9700</v>
       </c>
       <c r="G11" t="n">
-        <v>10.2123225913158</v>
+        <v>10.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2804.59651748294</v>
+        <v>1848.07</v>
       </c>
       <c r="I11" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1312.77910337707</v>
+        <v>882.16</v>
       </c>
       <c r="K11" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>2864.55928074074</v>
+        <v>1892.4</v>
       </c>
       <c r="M11" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2821.23</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4843.75</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4483.67</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>726.02</v>
+      </c>
+      <c r="R11" t="n">
+        <v>402.52</v>
+      </c>
+      <c r="S11" t="n">
+        <v>893.9800000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6308.06</v>
+        <v>9385.16035273496</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="D12" t="n">
-        <v>10930.68</v>
+        <v>16367.0952543357</v>
       </c>
       <c r="E12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="F12" t="n">
-        <v>9700</v>
+        <v>14460</v>
       </c>
       <c r="G12" t="n">
-        <v>10.5</v>
+        <v>10.2123225913158</v>
       </c>
       <c r="H12" t="n">
-        <v>1848.07</v>
+        <v>2804.59651748294</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="J12" t="n">
-        <v>882.16</v>
+        <v>1312.77910337707</v>
       </c>
       <c r="K12" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1892.4</v>
+        <v>2864.55928074074</v>
       </c>
       <c r="M12" t="n">
-        <v>11.4</v>
+        <v>11.9</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3077.100352734959</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5436.4152543357</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4760</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>956.5265174829399</v>
+      </c>
+      <c r="R12" t="n">
+        <v>430.61910337707</v>
+      </c>
+      <c r="S12" t="n">
+        <v>972.1592807407401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -964,11 +1192,29 @@
       <c r="M13" t="n">
         <v>11.2</v>
       </c>
+      <c r="N13" t="n">
+        <v>3073.887758803241</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5599.089992531101</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4821.060000000001</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1151.04057713793</v>
+      </c>
+      <c r="R13" t="n">
+        <v>426.79621147433</v>
+      </c>
+      <c r="S13" t="n">
+        <v>947.3654451156299</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1007,97 +1253,151 @@
       <c r="M14" t="n">
         <v>11.3</v>
       </c>
+      <c r="N14" t="n">
+        <v>3756.56137497664</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6619.34337903382</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5670</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1206.9424071039</v>
+      </c>
+      <c r="R14" t="n">
+        <v>545.061898866355</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1110.77769808699</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10127.82244</v>
+        <v>6846</v>
       </c>
       <c r="C15" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="D15" t="n">
-        <v>17735.42875</v>
+        <v>11886</v>
       </c>
       <c r="E15" t="n">
-        <v>6.274509804</v>
+        <v>6.5</v>
       </c>
       <c r="F15" t="n">
-        <v>15625.66667</v>
+        <v>10505</v>
       </c>
       <c r="G15" t="n">
-        <v>8.06131858</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>3028.612961</v>
+        <v>1999</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>1420.772789</v>
+        <v>963</v>
       </c>
       <c r="K15" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>3158.220565</v>
+        <v>2078</v>
       </c>
       <c r="M15" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3089.43862502336</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5266.65662096618</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4835</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>792.0575928961</v>
+      </c>
+      <c r="R15" t="n">
+        <v>417.938101133645</v>
+      </c>
+      <c r="S15" t="n">
+        <v>967.2223019130099</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6846</v>
+        <v>10127.82244</v>
       </c>
       <c r="C16" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="D16" t="n">
-        <v>11886</v>
+        <v>17735.42875</v>
       </c>
       <c r="E16" t="n">
-        <v>6.5</v>
+        <v>6.274509804</v>
       </c>
       <c r="F16" t="n">
-        <v>10505</v>
+        <v>15625.66667</v>
       </c>
       <c r="G16" t="n">
-        <v>8.300000000000001</v>
+        <v>8.06131858</v>
       </c>
       <c r="H16" t="n">
-        <v>1999</v>
+        <v>3028.612961</v>
       </c>
       <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1420.772789</v>
+      </c>
+      <c r="K16" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="J16" t="n">
-        <v>963</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="L16" t="n">
-        <v>2078</v>
+        <v>3158.220565</v>
       </c>
       <c r="M16" t="n">
-        <v>9.800000000000001</v>
+        <v>10.3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3281.82244</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5849.428749999999</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5120.666670000001</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1029.612961</v>
+      </c>
+      <c r="R16" t="n">
+        <v>457.7727890000001</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1080.220565</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1136,11 +1436,29 @@
       <c r="M17" t="n">
         <v>11.7</v>
       </c>
+      <c r="N17" t="n">
+        <v>3327.17756</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6085.571250000001</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5257.333329999999</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1189.387039</v>
+      </c>
+      <c r="R17" t="n">
+        <v>468.2272109999999</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1100.779435</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1179,97 +1497,151 @@
       <c r="M18" t="n">
         <v>11.4</v>
       </c>
+      <c r="N18" t="n">
+        <v>4084</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7184</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6067</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1280</v>
+      </c>
+      <c r="R18" t="n">
+        <v>583</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1237</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11019.44035</v>
+        <v>7435.056096</v>
       </c>
       <c r="C19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D19" t="n">
-        <v>19341.77346</v>
+        <v>12931.85573</v>
       </c>
       <c r="E19" t="n">
-        <v>7.487684729</v>
+        <v>7.297830375</v>
       </c>
       <c r="F19" t="n">
-        <v>16780</v>
+        <v>11237.8</v>
       </c>
       <c r="G19" t="n">
-        <v>7.387418137</v>
+        <v>6.971016269</v>
       </c>
       <c r="H19" t="n">
-        <v>3211.752419</v>
+        <v>2117.111885</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J19" t="n">
-        <v>1568.970621</v>
+        <v>1055.618564</v>
       </c>
       <c r="K19" t="n">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="L19" t="n">
-        <v>3541.610066</v>
+        <v>2324.069181</v>
       </c>
       <c r="M19" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3351.056096</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5747.855729999999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5170.799999999999</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>837.1118849999998</v>
+      </c>
+      <c r="R19" t="n">
+        <v>472.6185640000001</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1087.069181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7435.056096</v>
+        <v>11019.44035</v>
       </c>
       <c r="C20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>12931.85573</v>
+        <v>19341.77346</v>
       </c>
       <c r="E20" t="n">
-        <v>7.297830375</v>
+        <v>7.487684729</v>
       </c>
       <c r="F20" t="n">
-        <v>11237.8</v>
+        <v>16780</v>
       </c>
       <c r="G20" t="n">
-        <v>6.971016269</v>
+        <v>7.387418137</v>
       </c>
       <c r="H20" t="n">
-        <v>2117.111885</v>
+        <v>3211.752419</v>
       </c>
       <c r="I20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>1055.618564</v>
+        <v>1568.970621</v>
       </c>
       <c r="K20" t="n">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="L20" t="n">
-        <v>2324.069181</v>
+        <v>3541.610066</v>
       </c>
       <c r="M20" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3584.384254000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6409.917730000001</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5542.200000000001</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1094.640534</v>
+      </c>
+      <c r="R20" t="n">
+        <v>513.3520569999998</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1217.540885</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1308,11 +1680,29 @@
       <c r="M21" t="n">
         <v>11.4</v>
       </c>
+      <c r="N21" t="n">
+        <v>3600.836239999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6632.014029999998</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5628</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1290.095412</v>
+      </c>
+      <c r="R21" t="n">
+        <v>538.38022</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1202.702158999999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1351,97 +1741,151 @@
       <c r="M22" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="N22" t="n">
+        <v>4450</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7815</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6580</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1372</v>
+      </c>
+      <c r="R22" t="n">
+        <v>643</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1351</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11984</v>
+        <v>8091</v>
       </c>
       <c r="C23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>21035</v>
+        <v>14063</v>
       </c>
       <c r="E23" t="n">
         <v>6.6</v>
       </c>
       <c r="F23" t="n">
-        <v>18236</v>
+        <v>12186</v>
       </c>
       <c r="G23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3437</v>
+        <v>2265</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>1735</v>
+        <v>1166</v>
       </c>
       <c r="K23" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="L23" t="n">
-        <v>3879</v>
+        <v>2541</v>
       </c>
       <c r="M23" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3641</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6248</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5606</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>893</v>
+      </c>
+      <c r="R23" t="n">
+        <v>523</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8091</v>
+        <v>11984</v>
       </c>
       <c r="C24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>14063</v>
+        <v>21035</v>
       </c>
       <c r="E24" t="n">
         <v>6.6</v>
       </c>
       <c r="F24" t="n">
-        <v>12186</v>
+        <v>18236</v>
       </c>
       <c r="G24" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2265</v>
+        <v>3437</v>
       </c>
       <c r="I24" t="n">
         <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>1166</v>
+        <v>1735</v>
       </c>
       <c r="K24" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="L24" t="n">
-        <v>2541</v>
+        <v>3879</v>
       </c>
       <c r="M24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3893</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6972</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6050</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1172</v>
+      </c>
+      <c r="R24" t="n">
+        <v>569</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1338</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1480,11 +1924,29 @@
       <c r="M25" t="n">
         <v>8.9</v>
       </c>
+      <c r="N25" t="n">
+        <v>3845</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7193</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6100</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1415</v>
+      </c>
+      <c r="R25" t="n">
+        <v>644</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1289</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1523,97 +1985,151 @@
       <c r="M26" t="n">
         <v>7.3</v>
       </c>
+      <c r="N26" t="n">
+        <v>4837.6714285509</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8493.207694692701</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7158</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1485.5021502609</v>
+      </c>
+      <c r="R26" t="n">
+        <v>721.0577919848</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1448.9763238963</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13019.585278503</v>
+        <v>8792.508366940399</v>
       </c>
       <c r="C27" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>22882.0544797183</v>
+        <v>15294.373768166</v>
       </c>
       <c r="E27" t="n">
-        <v>6.1463414634</v>
+        <v>6.457925636</v>
       </c>
       <c r="F27" t="n">
-        <v>19881.5</v>
+        <v>13280.83</v>
       </c>
       <c r="G27" t="n">
-        <v>9.024855023800001</v>
+        <v>8.984326276099999</v>
       </c>
       <c r="H27" t="n">
-        <v>3757.1594434515</v>
+        <v>2466.6402805998</v>
       </c>
       <c r="I27" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="J27" t="n">
-        <v>1948.7265263059</v>
+        <v>1320.5157192223</v>
       </c>
       <c r="K27" t="n">
-        <v>12.3</v>
+        <v>13.2</v>
       </c>
       <c r="L27" t="n">
-        <v>4156.5832314577</v>
+        <v>2714.7094014035</v>
       </c>
       <c r="M27" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3954.8369383895</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6801.1660734733</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6122.83</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>981.1381303389001</v>
+      </c>
+      <c r="R27" t="n">
+        <v>599.4579272375</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1265.7330775072</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8792.508366940399</v>
+        <v>13019.585278503</v>
       </c>
       <c r="C28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D28" t="n">
-        <v>15294.373768166</v>
+        <v>22882.0544797183</v>
       </c>
       <c r="E28" t="n">
-        <v>6.457925636</v>
+        <v>6.1463414634</v>
       </c>
       <c r="F28" t="n">
-        <v>13280.83</v>
+        <v>19881.5</v>
       </c>
       <c r="G28" t="n">
-        <v>8.984326276099999</v>
+        <v>9.024855023800001</v>
       </c>
       <c r="H28" t="n">
-        <v>2466.6402805998</v>
+        <v>3757.1594434515</v>
       </c>
       <c r="I28" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>1320.5157192223</v>
+        <v>1948.7265263059</v>
       </c>
       <c r="K28" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="L28" t="n">
-        <v>2714.7094014035</v>
+        <v>4156.5832314577</v>
       </c>
       <c r="M28" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4227.076911562601</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7587.680711552299</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6600.67</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1290.5191628517</v>
+      </c>
+      <c r="R28" t="n">
+        <v>628.2108070836</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1441.8738300542</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1652,11 +2168,29 @@
       <c r="M29" t="n">
         <v>9.9</v>
       </c>
+      <c r="N29" t="n">
+        <v>4166.414721497</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7850.945520281701</v>
+      </c>
+      <c r="P29" t="n">
+        <v>6641.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1489.8405565485</v>
+      </c>
+      <c r="R29" t="n">
+        <v>670.2734736940999</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1523.4167685423</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1695,97 +2229,151 @@
       <c r="M30" t="n">
         <v>6.8</v>
       </c>
+      <c r="N30" t="n">
+        <v>4896</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8561</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7109</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1376</v>
+      </c>
+      <c r="R30" t="n">
+        <v>741</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1548</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13486</v>
+        <v>9010</v>
       </c>
       <c r="C31" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D31" t="n">
-        <v>23781</v>
+        <v>15666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>-1.3</v>
       </c>
       <c r="F31" t="n">
-        <v>20512</v>
+        <v>13347</v>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3680</v>
+        <v>2341</v>
       </c>
       <c r="I31" t="n">
-        <v>-2</v>
+        <v>-5.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2090</v>
+        <v>1376</v>
       </c>
       <c r="K31" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
-        <v>4525</v>
+        <v>2938</v>
       </c>
       <c r="M31" t="n">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4114</v>
+      </c>
+      <c r="O31" t="n">
+        <v>7105</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6238</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>965</v>
+      </c>
+      <c r="R31" t="n">
+        <v>635</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1390</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9010</v>
+        <v>13486</v>
       </c>
       <c r="C32" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="n">
-        <v>15666</v>
+        <v>23781</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.3</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
-        <v>13347</v>
+        <v>20512</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2341</v>
+        <v>3680</v>
       </c>
       <c r="I32" t="n">
-        <v>-5.1</v>
+        <v>-2</v>
       </c>
       <c r="J32" t="n">
-        <v>1376</v>
+        <v>2090</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2938</v>
+        <v>4525</v>
       </c>
       <c r="M32" t="n">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4476</v>
+      </c>
+      <c r="O32" t="n">
+        <v>8115</v>
+      </c>
+      <c r="P32" t="n">
+        <v>7165</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1339</v>
+      </c>
+      <c r="R32" t="n">
+        <v>714</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1587</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1824,11 +2412,29 @@
       <c r="M33" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="N33" t="n">
+        <v>4431</v>
+      </c>
+      <c r="O33" t="n">
+        <v>8408</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7028</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1627</v>
+      </c>
+      <c r="R33" t="n">
+        <v>701</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1648</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1867,97 +2473,151 @@
       <c r="M34" t="n">
         <v>10.7</v>
       </c>
+      <c r="N34" t="n">
+        <v>5505</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9730</v>
+      </c>
+      <c r="P34" t="n">
+        <v>8014</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1645</v>
+      </c>
+      <c r="R34" t="n">
+        <v>867</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1714</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14917</v>
+        <v>10104</v>
       </c>
       <c r="C35" t="n">
-        <v>10.6</v>
+        <v>12.1</v>
       </c>
       <c r="D35" t="n">
-        <v>26265</v>
+        <v>17642</v>
       </c>
       <c r="E35" t="n">
-        <v>9.699999999999999</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>22157</v>
+        <v>14897</v>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>11.6</v>
       </c>
       <c r="H35" t="n">
-        <v>4136</v>
+        <v>2752</v>
       </c>
       <c r="I35" t="n">
-        <v>12.4</v>
+        <v>17.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2329</v>
+        <v>1582</v>
       </c>
       <c r="K35" t="n">
-        <v>11.4</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>4884</v>
+        <v>3204</v>
       </c>
       <c r="M35" t="n">
-        <v>7.9</v>
+        <v>9</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4599</v>
+      </c>
+      <c r="O35" t="n">
+        <v>7912</v>
+      </c>
+      <c r="P35" t="n">
+        <v>6883</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1107</v>
+      </c>
+      <c r="R35" t="n">
+        <v>715</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1490</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10104</v>
+        <v>14917</v>
       </c>
       <c r="C36" t="n">
-        <v>12.1</v>
+        <v>10.6</v>
       </c>
       <c r="D36" t="n">
-        <v>17642</v>
+        <v>26265</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>14897</v>
+        <v>22157</v>
       </c>
       <c r="G36" t="n">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>2752</v>
+        <v>4136</v>
       </c>
       <c r="I36" t="n">
-        <v>17.5</v>
+        <v>12.4</v>
       </c>
       <c r="J36" t="n">
-        <v>1582</v>
+        <v>2329</v>
       </c>
       <c r="K36" t="n">
-        <v>15</v>
+        <v>11.4</v>
       </c>
       <c r="L36" t="n">
-        <v>3204</v>
+        <v>4884</v>
       </c>
       <c r="M36" t="n">
-        <v>9</v>
+        <v>7.9</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4813</v>
+      </c>
+      <c r="O36" t="n">
+        <v>8623</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7260</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1384</v>
+      </c>
+      <c r="R36" t="n">
+        <v>747</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1680</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1988,6 +2648,24 @@
         <v>6530.52</v>
       </c>
       <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>4712.360000000001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>8863.080000000002</v>
+      </c>
+      <c r="P37" t="n">
+        <v>7817.912280701799</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1756.68</v>
+      </c>
+      <c r="R37" t="n">
+        <v>746.5100000000002</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1646.52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_quarter/zb/人民生活/全国居民人均收入情况.xlsx
+++ b/data_quarter/zb/人民生活/全国居民人均收入情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,36 +494,6 @@
           <t>居民人均可支配转移净收入_累计增长</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均可支配工资性收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均可支配收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均可支配收入中位数</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均可支配经营净收入</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均可支配财产净收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均可支配转移净收入</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -555,122 +525,68 @@
         <v>798.4</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>2849.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5006.09</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4117.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>968.3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>390</v>
-      </c>
-      <c r="S2" t="n">
-        <v>798.4</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5224.7</v>
+        <v>7834.4</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>9049.07</v>
+        <v>13556.5</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>7723.4</v>
+        <v>11700.2</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1599.7</v>
+        <v>2382.9</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>704.1</v>
+        <v>1043.8</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1520.6</v>
+        <v>2295.4</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>2375.3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4042.98</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3606.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>631.4000000000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>314.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>722.1999999999999</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7834.4</v>
+        <v>5224.7</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>13556.5</v>
+        <v>9049.07</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>11700.2</v>
+        <v>7723.4</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>2382.9</v>
+        <v>1599.7</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1043.8</v>
+        <v>704.1</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2295.4</v>
+        <v>1520.6</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>2609.7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4507.43</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3976.800000000001</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>783.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>339.6999999999999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>774.8000000000002</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -704,24 +620,6 @@
         <v>3042.05</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>2576.360000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4754.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3931.9</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1051.77</v>
-      </c>
-      <c r="R5" t="n">
-        <v>379.46</v>
-      </c>
-      <c r="S5" t="n">
-        <v>746.6500000000001</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -765,145 +663,91 @@
       <c r="M6" t="n">
         <v>10.9</v>
       </c>
-      <c r="N6" t="n">
-        <v>3187.28</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5562.18</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4693.595</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1046.83</v>
-      </c>
-      <c r="R6" t="n">
-        <v>442.96</v>
-      </c>
-      <c r="S6" t="n">
-        <v>885.12</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5784.94</v>
+        <v>8605.59</v>
       </c>
       <c r="C7" t="n">
-        <v>10.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>10024.97</v>
+        <v>14985.63</v>
       </c>
       <c r="E7" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>8779.91333333333</v>
+        <v>13120.125</v>
       </c>
       <c r="G7" t="n">
-        <v>13.678939711156</v>
+        <v>12.1356640577425</v>
       </c>
       <c r="H7" t="n">
-        <v>1737.41</v>
+        <v>2628.13</v>
       </c>
       <c r="I7" t="n">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="J7" t="n">
-        <v>804.14</v>
+        <v>1192.08</v>
       </c>
       <c r="K7" t="n">
         <v>14.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1698.48</v>
+        <v>2559.83</v>
       </c>
       <c r="M7" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2597.659999999999</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4462.789999999999</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4086.31833333333</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>690.5800000000002</v>
-      </c>
-      <c r="R7" t="n">
-        <v>361.18</v>
-      </c>
-      <c r="S7" t="n">
-        <v>813.36</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8605.59</v>
+        <v>5784.94</v>
       </c>
       <c r="C8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="D8" t="n">
-        <v>14985.63</v>
+        <v>10024.97</v>
       </c>
       <c r="E8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>13120.125</v>
+        <v>8779.91333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>12.1356640577425</v>
+        <v>13.678939711156</v>
       </c>
       <c r="H8" t="n">
-        <v>2628.13</v>
+        <v>1737.41</v>
       </c>
       <c r="I8" t="n">
-        <v>10.3</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1192.08</v>
+        <v>804.14</v>
       </c>
       <c r="K8" t="n">
         <v>14.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2559.83</v>
+        <v>1698.48</v>
       </c>
       <c r="M8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2820.650000000001</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4960.66</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4340.21166666667</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>890.72</v>
-      </c>
-      <c r="R8" t="n">
-        <v>387.9399999999999</v>
-      </c>
-      <c r="S8" t="n">
-        <v>861.3499999999999</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="9">
@@ -948,24 +792,6 @@
       <c r="M9" t="n">
         <v>12.6</v>
       </c>
-      <c r="N9" t="n">
-        <v>2814.99</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5181.49</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4449.669999999998</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1103.89</v>
-      </c>
-      <c r="R9" t="n">
-        <v>395.6800000000001</v>
-      </c>
-      <c r="S9" t="n">
-        <v>866.9300000000003</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1009,145 +835,91 @@
       <c r="M10" t="n">
         <v>12.8</v>
       </c>
-      <c r="N10" t="n">
-        <v>3486.83</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6086.93</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5216.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1122.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>479.64</v>
-      </c>
-      <c r="S10" t="n">
-        <v>998.42</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6308.06</v>
+        <v>9385.16035273496</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="D11" t="n">
-        <v>10930.68</v>
+        <v>16367.0952543357</v>
       </c>
       <c r="E11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="F11" t="n">
-        <v>9700</v>
+        <v>14460</v>
       </c>
       <c r="G11" t="n">
-        <v>10.5</v>
+        <v>10.2123225913158</v>
       </c>
       <c r="H11" t="n">
-        <v>1848.07</v>
+        <v>2804.59651748294</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="J11" t="n">
-        <v>882.16</v>
+        <v>1312.77910337707</v>
       </c>
       <c r="K11" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1892.4</v>
+        <v>2864.55928074074</v>
       </c>
       <c r="M11" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2821.23</v>
-      </c>
-      <c r="O11" t="n">
-        <v>4843.75</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4483.67</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>726.02</v>
-      </c>
-      <c r="R11" t="n">
-        <v>402.52</v>
-      </c>
-      <c r="S11" t="n">
-        <v>893.9800000000001</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9385.16035273496</v>
+        <v>6308.06</v>
       </c>
       <c r="C12" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>16367.0952543357</v>
+        <v>10930.68</v>
       </c>
       <c r="E12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="F12" t="n">
-        <v>14460</v>
+        <v>9700</v>
       </c>
       <c r="G12" t="n">
-        <v>10.2123225913158</v>
+        <v>10.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2804.59651748294</v>
+        <v>1848.07</v>
       </c>
       <c r="I12" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1312.77910337707</v>
+        <v>882.16</v>
       </c>
       <c r="K12" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>2864.55928074074</v>
+        <v>1892.4</v>
       </c>
       <c r="M12" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3077.100352734959</v>
-      </c>
-      <c r="O12" t="n">
-        <v>5436.4152543357</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4760</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>956.5265174829399</v>
-      </c>
-      <c r="R12" t="n">
-        <v>430.61910337707</v>
-      </c>
-      <c r="S12" t="n">
-        <v>972.1592807407401</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="13">
@@ -1192,24 +964,6 @@
       <c r="M13" t="n">
         <v>11.2</v>
       </c>
-      <c r="N13" t="n">
-        <v>3073.887758803241</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5599.089992531101</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4821.060000000001</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1151.04057713793</v>
-      </c>
-      <c r="R13" t="n">
-        <v>426.79621147433</v>
-      </c>
-      <c r="S13" t="n">
-        <v>947.3654451156299</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1253,145 +1007,91 @@
       <c r="M14" t="n">
         <v>11.3</v>
       </c>
-      <c r="N14" t="n">
-        <v>3756.56137497664</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6619.34337903382</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5670</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1206.9424071039</v>
-      </c>
-      <c r="R14" t="n">
-        <v>545.061898866355</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1110.77769808699</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6846</v>
+        <v>10127.82244</v>
       </c>
       <c r="C15" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="D15" t="n">
-        <v>11886</v>
+        <v>17735.42875</v>
       </c>
       <c r="E15" t="n">
-        <v>6.5</v>
+        <v>6.274509804</v>
       </c>
       <c r="F15" t="n">
-        <v>10505</v>
+        <v>15625.66667</v>
       </c>
       <c r="G15" t="n">
-        <v>8.300000000000001</v>
+        <v>8.06131858</v>
       </c>
       <c r="H15" t="n">
-        <v>1999</v>
+        <v>3028.612961</v>
       </c>
       <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1420.772789</v>
+      </c>
+      <c r="K15" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="J15" t="n">
-        <v>963</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="L15" t="n">
-        <v>2078</v>
+        <v>3158.220565</v>
       </c>
       <c r="M15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3089.43862502336</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5266.65662096618</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4835</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>792.0575928961</v>
-      </c>
-      <c r="R15" t="n">
-        <v>417.938101133645</v>
-      </c>
-      <c r="S15" t="n">
-        <v>967.2223019130099</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10127.82244</v>
+        <v>6846</v>
       </c>
       <c r="C16" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="D16" t="n">
-        <v>17735.42875</v>
+        <v>11886</v>
       </c>
       <c r="E16" t="n">
-        <v>6.274509804</v>
+        <v>6.5</v>
       </c>
       <c r="F16" t="n">
-        <v>15625.66667</v>
+        <v>10505</v>
       </c>
       <c r="G16" t="n">
-        <v>8.06131858</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>3028.612961</v>
+        <v>1999</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>1420.772789</v>
+        <v>963</v>
       </c>
       <c r="K16" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>3158.220565</v>
+        <v>2078</v>
       </c>
       <c r="M16" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3281.82244</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5849.428749999999</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5120.666670000001</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1029.612961</v>
-      </c>
-      <c r="R16" t="n">
-        <v>457.7727890000001</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1080.220565</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1436,24 +1136,6 @@
       <c r="M17" t="n">
         <v>11.7</v>
       </c>
-      <c r="N17" t="n">
-        <v>3327.17756</v>
-      </c>
-      <c r="O17" t="n">
-        <v>6085.571250000001</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5257.333329999999</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1189.387039</v>
-      </c>
-      <c r="R17" t="n">
-        <v>468.2272109999999</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1100.779435</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1497,145 +1179,91 @@
       <c r="M18" t="n">
         <v>11.4</v>
       </c>
-      <c r="N18" t="n">
-        <v>4084</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7184</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6067</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1280</v>
-      </c>
-      <c r="R18" t="n">
-        <v>583</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1237</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7435.056096</v>
+        <v>11019.44035</v>
       </c>
       <c r="C19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>12931.85573</v>
+        <v>19341.77346</v>
       </c>
       <c r="E19" t="n">
-        <v>7.297830375</v>
+        <v>7.487684729</v>
       </c>
       <c r="F19" t="n">
-        <v>11237.8</v>
+        <v>16780</v>
       </c>
       <c r="G19" t="n">
-        <v>6.971016269</v>
+        <v>7.387418137</v>
       </c>
       <c r="H19" t="n">
-        <v>2117.111885</v>
+        <v>3211.752419</v>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>1055.618564</v>
+        <v>1568.970621</v>
       </c>
       <c r="K19" t="n">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="L19" t="n">
-        <v>2324.069181</v>
+        <v>3541.610066</v>
       </c>
       <c r="M19" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3351.056096</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5747.855729999999</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5170.799999999999</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>837.1118849999998</v>
-      </c>
-      <c r="R19" t="n">
-        <v>472.6185640000001</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1087.069181</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11019.44035</v>
+        <v>7435.056096</v>
       </c>
       <c r="C20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D20" t="n">
-        <v>19341.77346</v>
+        <v>12931.85573</v>
       </c>
       <c r="E20" t="n">
-        <v>7.487684729</v>
+        <v>7.297830375</v>
       </c>
       <c r="F20" t="n">
-        <v>16780</v>
+        <v>11237.8</v>
       </c>
       <c r="G20" t="n">
-        <v>7.387418137</v>
+        <v>6.971016269</v>
       </c>
       <c r="H20" t="n">
-        <v>3211.752419</v>
+        <v>2117.111885</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1568.970621</v>
+        <v>1055.618564</v>
       </c>
       <c r="K20" t="n">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="L20" t="n">
-        <v>3541.610066</v>
+        <v>2324.069181</v>
       </c>
       <c r="M20" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3584.384254000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>6409.917730000001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5542.200000000001</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1094.640534</v>
-      </c>
-      <c r="R20" t="n">
-        <v>513.3520569999998</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1217.540885</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="21">
@@ -1680,24 +1308,6 @@
       <c r="M21" t="n">
         <v>11.4</v>
       </c>
-      <c r="N21" t="n">
-        <v>3600.836239999999</v>
-      </c>
-      <c r="O21" t="n">
-        <v>6632.014029999998</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5628</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1290.095412</v>
-      </c>
-      <c r="R21" t="n">
-        <v>538.38022</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1202.702158999999</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1741,145 +1351,91 @@
       <c r="M22" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="N22" t="n">
-        <v>4450</v>
-      </c>
-      <c r="O22" t="n">
-        <v>7815</v>
-      </c>
-      <c r="P22" t="n">
-        <v>6580</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1372</v>
-      </c>
-      <c r="R22" t="n">
-        <v>643</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1351</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8091</v>
+        <v>11984</v>
       </c>
       <c r="C23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>14063</v>
+        <v>21035</v>
       </c>
       <c r="E23" t="n">
         <v>6.6</v>
       </c>
       <c r="F23" t="n">
-        <v>12186</v>
+        <v>18236</v>
       </c>
       <c r="G23" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2265</v>
+        <v>3437</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>1166</v>
+        <v>1735</v>
       </c>
       <c r="K23" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="L23" t="n">
-        <v>2541</v>
+        <v>3879</v>
       </c>
       <c r="M23" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3641</v>
-      </c>
-      <c r="O23" t="n">
-        <v>6248</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5606</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>893</v>
-      </c>
-      <c r="R23" t="n">
-        <v>523</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1190</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11984</v>
+        <v>8091</v>
       </c>
       <c r="C24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>21035</v>
+        <v>14063</v>
       </c>
       <c r="E24" t="n">
         <v>6.6</v>
       </c>
       <c r="F24" t="n">
-        <v>18236</v>
+        <v>12186</v>
       </c>
       <c r="G24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3437</v>
+        <v>2265</v>
       </c>
       <c r="I24" t="n">
         <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>1735</v>
+        <v>1166</v>
       </c>
       <c r="K24" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="L24" t="n">
-        <v>3879</v>
+        <v>2541</v>
       </c>
       <c r="M24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3893</v>
-      </c>
-      <c r="O24" t="n">
-        <v>6972</v>
-      </c>
-      <c r="P24" t="n">
-        <v>6050</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1172</v>
-      </c>
-      <c r="R24" t="n">
-        <v>569</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1338</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -1924,24 +1480,6 @@
       <c r="M25" t="n">
         <v>8.9</v>
       </c>
-      <c r="N25" t="n">
-        <v>3845</v>
-      </c>
-      <c r="O25" t="n">
-        <v>7193</v>
-      </c>
-      <c r="P25" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1415</v>
-      </c>
-      <c r="R25" t="n">
-        <v>644</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1289</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1985,145 +1523,91 @@
       <c r="M26" t="n">
         <v>7.3</v>
       </c>
-      <c r="N26" t="n">
-        <v>4837.6714285509</v>
-      </c>
-      <c r="O26" t="n">
-        <v>8493.207694692701</v>
-      </c>
-      <c r="P26" t="n">
-        <v>7158</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1485.5021502609</v>
-      </c>
-      <c r="R26" t="n">
-        <v>721.0577919848</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1448.9763238963</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8792.508366940399</v>
+        <v>13019.585278503</v>
       </c>
       <c r="C27" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D27" t="n">
-        <v>15294.373768166</v>
+        <v>22882.0544797183</v>
       </c>
       <c r="E27" t="n">
-        <v>6.457925636</v>
+        <v>6.1463414634</v>
       </c>
       <c r="F27" t="n">
-        <v>13280.83</v>
+        <v>19881.5</v>
       </c>
       <c r="G27" t="n">
-        <v>8.984326276099999</v>
+        <v>9.024855023800001</v>
       </c>
       <c r="H27" t="n">
-        <v>2466.6402805998</v>
+        <v>3757.1594434515</v>
       </c>
       <c r="I27" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>1320.5157192223</v>
+        <v>1948.7265263059</v>
       </c>
       <c r="K27" t="n">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="L27" t="n">
-        <v>2714.7094014035</v>
+        <v>4156.5832314577</v>
       </c>
       <c r="M27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3954.8369383895</v>
-      </c>
-      <c r="O27" t="n">
-        <v>6801.1660734733</v>
-      </c>
-      <c r="P27" t="n">
-        <v>6122.83</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>981.1381303389001</v>
-      </c>
-      <c r="R27" t="n">
-        <v>599.4579272375</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1265.7330775072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13019.585278503</v>
+        <v>8792.508366940399</v>
       </c>
       <c r="C28" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>22882.0544797183</v>
+        <v>15294.373768166</v>
       </c>
       <c r="E28" t="n">
-        <v>6.1463414634</v>
+        <v>6.457925636</v>
       </c>
       <c r="F28" t="n">
-        <v>19881.5</v>
+        <v>13280.83</v>
       </c>
       <c r="G28" t="n">
-        <v>9.024855023800001</v>
+        <v>8.984326276099999</v>
       </c>
       <c r="H28" t="n">
-        <v>3757.1594434515</v>
+        <v>2466.6402805998</v>
       </c>
       <c r="I28" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="J28" t="n">
-        <v>1948.7265263059</v>
+        <v>1320.5157192223</v>
       </c>
       <c r="K28" t="n">
-        <v>12.3</v>
+        <v>13.2</v>
       </c>
       <c r="L28" t="n">
-        <v>4156.5832314577</v>
+        <v>2714.7094014035</v>
       </c>
       <c r="M28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4227.076911562601</v>
-      </c>
-      <c r="O28" t="n">
-        <v>7587.680711552299</v>
-      </c>
-      <c r="P28" t="n">
-        <v>6600.67</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1290.5191628517</v>
-      </c>
-      <c r="R28" t="n">
-        <v>628.2108070836</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1441.8738300542</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="29">
@@ -2168,24 +1652,6 @@
       <c r="M29" t="n">
         <v>9.9</v>
       </c>
-      <c r="N29" t="n">
-        <v>4166.414721497</v>
-      </c>
-      <c r="O29" t="n">
-        <v>7850.945520281701</v>
-      </c>
-      <c r="P29" t="n">
-        <v>6641.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1489.8405565485</v>
-      </c>
-      <c r="R29" t="n">
-        <v>670.2734736940999</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1523.4167685423</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2229,145 +1695,91 @@
       <c r="M30" t="n">
         <v>6.8</v>
       </c>
-      <c r="N30" t="n">
-        <v>4896</v>
-      </c>
-      <c r="O30" t="n">
-        <v>8561</v>
-      </c>
-      <c r="P30" t="n">
-        <v>7109</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1376</v>
-      </c>
-      <c r="R30" t="n">
-        <v>741</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1548</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9010</v>
+        <v>13486</v>
       </c>
       <c r="C31" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="n">
-        <v>15666</v>
+        <v>23781</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.3</v>
+        <v>0.6</v>
       </c>
       <c r="F31" t="n">
-        <v>13347</v>
+        <v>20512</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
-        <v>2341</v>
+        <v>3680</v>
       </c>
       <c r="I31" t="n">
-        <v>-5.1</v>
+        <v>-2</v>
       </c>
       <c r="J31" t="n">
-        <v>1376</v>
+        <v>2090</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="L31" t="n">
-        <v>2938</v>
+        <v>4525</v>
       </c>
       <c r="M31" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4114</v>
-      </c>
-      <c r="O31" t="n">
-        <v>7105</v>
-      </c>
-      <c r="P31" t="n">
-        <v>6238</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>965</v>
-      </c>
-      <c r="R31" t="n">
-        <v>635</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1390</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13486</v>
+        <v>9010</v>
       </c>
       <c r="C32" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D32" t="n">
-        <v>23781</v>
+        <v>15666</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>-1.3</v>
       </c>
       <c r="F32" t="n">
-        <v>20512</v>
+        <v>13347</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3680</v>
+        <v>2341</v>
       </c>
       <c r="I32" t="n">
-        <v>-2</v>
+        <v>-5.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2090</v>
+        <v>1376</v>
       </c>
       <c r="K32" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
-        <v>4525</v>
+        <v>2938</v>
       </c>
       <c r="M32" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4476</v>
-      </c>
-      <c r="O32" t="n">
-        <v>8115</v>
-      </c>
-      <c r="P32" t="n">
-        <v>7165</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1339</v>
-      </c>
-      <c r="R32" t="n">
-        <v>714</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1587</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -2412,24 +1824,6 @@
       <c r="M33" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="N33" t="n">
-        <v>4431</v>
-      </c>
-      <c r="O33" t="n">
-        <v>8408</v>
-      </c>
-      <c r="P33" t="n">
-        <v>7028</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1627</v>
-      </c>
-      <c r="R33" t="n">
-        <v>701</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1648</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2473,145 +1867,91 @@
       <c r="M34" t="n">
         <v>10.7</v>
       </c>
-      <c r="N34" t="n">
-        <v>5505</v>
-      </c>
-      <c r="O34" t="n">
-        <v>9730</v>
-      </c>
-      <c r="P34" t="n">
-        <v>8014</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1645</v>
-      </c>
-      <c r="R34" t="n">
-        <v>867</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1714</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10104</v>
+        <v>14917</v>
       </c>
       <c r="C35" t="n">
-        <v>12.1</v>
+        <v>10.6</v>
       </c>
       <c r="D35" t="n">
-        <v>17642</v>
+        <v>26265</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>14897</v>
+        <v>22157</v>
       </c>
       <c r="G35" t="n">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="H35" t="n">
-        <v>2752</v>
+        <v>4136</v>
       </c>
       <c r="I35" t="n">
-        <v>17.5</v>
+        <v>12.4</v>
       </c>
       <c r="J35" t="n">
-        <v>1582</v>
+        <v>2329</v>
       </c>
       <c r="K35" t="n">
-        <v>15</v>
+        <v>11.4</v>
       </c>
       <c r="L35" t="n">
-        <v>3204</v>
+        <v>4884</v>
       </c>
       <c r="M35" t="n">
-        <v>9</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4599</v>
-      </c>
-      <c r="O35" t="n">
-        <v>7912</v>
-      </c>
-      <c r="P35" t="n">
-        <v>6883</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1107</v>
-      </c>
-      <c r="R35" t="n">
-        <v>715</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1490</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14917</v>
+        <v>10104</v>
       </c>
       <c r="C36" t="n">
-        <v>10.6</v>
+        <v>12.1</v>
       </c>
       <c r="D36" t="n">
-        <v>26265</v>
+        <v>17642</v>
       </c>
       <c r="E36" t="n">
-        <v>9.699999999999999</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>22157</v>
+        <v>14897</v>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>11.6</v>
       </c>
       <c r="H36" t="n">
-        <v>4136</v>
+        <v>2752</v>
       </c>
       <c r="I36" t="n">
-        <v>12.4</v>
+        <v>17.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2329</v>
+        <v>1582</v>
       </c>
       <c r="K36" t="n">
-        <v>11.4</v>
+        <v>15</v>
       </c>
       <c r="L36" t="n">
-        <v>4884</v>
+        <v>3204</v>
       </c>
       <c r="M36" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4813</v>
-      </c>
-      <c r="O36" t="n">
-        <v>8623</v>
-      </c>
-      <c r="P36" t="n">
-        <v>7260</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1384</v>
-      </c>
-      <c r="R36" t="n">
-        <v>747</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1680</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2623,7 +1963,9 @@
       <c r="B37" t="n">
         <v>19629.36</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>9.5549134026</v>
+      </c>
       <c r="D37" t="n">
         <v>35128.08</v>
       </c>
@@ -2639,32 +1981,20 @@
       <c r="H37" t="n">
         <v>5892.68</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>11.0404686891</v>
+      </c>
       <c r="J37" t="n">
         <v>3075.51</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>10.1742039472</v>
+      </c>
       <c r="L37" t="n">
         <v>6530.52</v>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>4712.360000000001</v>
-      </c>
-      <c r="O37" t="n">
-        <v>8863.080000000002</v>
-      </c>
-      <c r="P37" t="n">
-        <v>7817.912280701799</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1756.68</v>
-      </c>
-      <c r="R37" t="n">
-        <v>746.5100000000002</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1646.52</v>
+      <c r="M37" t="n">
+        <v>5.7884888294</v>
       </c>
     </row>
   </sheetData>
